--- a/Outputs/Eval board/BOM/Bill of Materials-Flyback Eval.xlsx
+++ b/Outputs/Eval board/BOM/Bill of Materials-Flyback Eval.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7B151EF-F937-4D2E-BB8A-F8061C01E733}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{971CD09D-0EF4-444C-ABFC-3ED13B7C44B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27650" yWindow="5310" windowWidth="9920" windowHeight="15460" xr2:uid="{DB768E1E-AA7A-4331-8789-897241140034}"/>
+    <workbookView xWindow="59985" yWindow="15570" windowWidth="17145" windowHeight="15465" xr2:uid="{243E9A0A-311D-4583-A146-2CC0D2427A64}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Flyback Eval" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="159">
   <si>
     <t>Comment</t>
   </si>
@@ -88,105 +88,111 @@
     <t>Samsung</t>
   </si>
   <si>
+    <t>18n</t>
+  </si>
+  <si>
+    <t>Cap Ceramic 0.018uF 100V X7R 10% SMD 0805 125C Paper T/R</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>CAPC0805(2012)100_M</t>
+  </si>
+  <si>
+    <t>CC0805KRX7R0BB183</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>10n</t>
+  </si>
+  <si>
+    <t>CAP CER 10000PF 250V C0GNP0 1206</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>CAPC1206(3216)170_M</t>
+  </si>
+  <si>
+    <t>C3216C0G2E103J115AE</t>
+  </si>
+  <si>
+    <t>TDK</t>
+  </si>
+  <si>
+    <t>220n</t>
+  </si>
+  <si>
+    <t>Film Capacitors 250V .22uF 10% PCM10</t>
+  </si>
+  <si>
+    <t>C8, C9</t>
+  </si>
+  <si>
+    <t>WIMA 6x12x13</t>
+  </si>
+  <si>
+    <t>MKP4F032203G00KSSD</t>
+  </si>
+  <si>
+    <t>WIMA</t>
+  </si>
+  <si>
+    <t>100n</t>
+  </si>
+  <si>
+    <t>Cap Ceramic 0.1uF 50V X7R 5% SMD 0603 125C Paper T/R</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>CAPC0603(1608)100_N</t>
+  </si>
+  <si>
+    <t>CC0603JRX7R9BB104</t>
+  </si>
+  <si>
+    <t>Yageo</t>
+  </si>
+  <si>
+    <t>4.7n</t>
+  </si>
+  <si>
+    <t>CAP CER 4700PF 50V C0G/NP0 0603</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>GRM1885C1H472JA01D</t>
+  </si>
+  <si>
+    <t>Murata</t>
+  </si>
+  <si>
+    <t>68n</t>
+  </si>
+  <si>
+    <t>CAPACITOR CERAMIC 0.068UF 25V, X7R, 10%, 0603</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>CAPC0603(1608)100_M</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R8BB683</t>
+  </si>
+  <si>
     <t>22n</t>
   </si>
   <si>
-    <t>CAP CER 0.022UF 100V X7R 0805</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>CAPC0805(2012)100_N</t>
-  </si>
-  <si>
-    <t>CC0805KRX7R0BB223</t>
-  </si>
-  <si>
-    <t>Yageo</t>
-  </si>
-  <si>
-    <t>10n</t>
-  </si>
-  <si>
-    <t>CAP CER 10000PF 250V C0GNP0 1206</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>CAPC1206(3216)170_M</t>
-  </si>
-  <si>
-    <t>C3216C0G2E103J115AE</t>
-  </si>
-  <si>
-    <t>TDK</t>
-  </si>
-  <si>
-    <t>220n</t>
-  </si>
-  <si>
-    <t>Film Capacitors 250V .22uF 10% PCM10</t>
-  </si>
-  <si>
-    <t>C8, C9</t>
-  </si>
-  <si>
-    <t>WIMA 6x12x13</t>
-  </si>
-  <si>
-    <t>MKP4F032203G00KSSD</t>
-  </si>
-  <si>
-    <t>WIMA</t>
-  </si>
-  <si>
-    <t>100n</t>
-  </si>
-  <si>
-    <t>Cap Ceramic 0.1uF 50V X7R 5% SMD 0603 125C Paper T/R</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>CAPC0603(1608)100_N</t>
-  </si>
-  <si>
-    <t>CC0603JRX7R9BB104</t>
-  </si>
-  <si>
-    <t>4.7n</t>
-  </si>
-  <si>
-    <t>CAP CER 4700PF 50V C0G/NP0 0603</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>GRM1885C1H472JA01D</t>
-  </si>
-  <si>
-    <t>Murata</t>
-  </si>
-  <si>
-    <t>68n</t>
-  </si>
-  <si>
-    <t>CAPACITOR CERAMIC 0.068UF 25V, X7R, 10%, 0603</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>CAPC0603(1608)100_M</t>
-  </si>
-  <si>
-    <t>CC0603KRX7R8BB683</t>
-  </si>
-  <si>
     <t>YAGEO   CC0603KRX7R9BB223   CERAMIC CAPACITOR 0.022UF 50V, X7R, 10%, 0603, FULL REEL</t>
   </si>
   <si>
@@ -223,28 +229,22 @@
     <t>CL10B105MO8NNWC</t>
   </si>
   <si>
-    <t>1000u</t>
-  </si>
-  <si>
-    <t>CAP ALUM 1000UF 20% 10V RADIAL</t>
-  </si>
-  <si>
-    <t>C16</t>
-  </si>
-  <si>
-    <t>5x10x12.5mm can</t>
-  </si>
-  <si>
-    <t>UVR1A102MPD</t>
-  </si>
-  <si>
-    <t>Nichicon</t>
-  </si>
-  <si>
-    <t>ES1G</t>
-  </si>
-  <si>
-    <t>ON SEMICONDUCTOR - ES1G - DIODE, FAST RECOVERY, 1A, 400V, DO-214AC</t>
+    <t>Cap Ceramic 1uF 50V X7R 10% SMD 0805 125C Blister T/R</t>
+  </si>
+  <si>
+    <t>C16, C17</t>
+  </si>
+  <si>
+    <t>CAPC0805(2012)145_N</t>
+  </si>
+  <si>
+    <t>CC0805KKX7R9BB105</t>
+  </si>
+  <si>
+    <t>VS-3EMH06-M3</t>
+  </si>
+  <si>
+    <t>Rectifiers 3 Amp 600 Volts Hyperfast - Low QRR</t>
   </si>
   <si>
     <t>D1</t>
@@ -253,7 +253,10 @@
     <t>SMA DO-214AC</t>
   </si>
   <si>
-    <t>ON Semiconductor / Fairchild</t>
+    <t>VS-3EMH06-M3/5AT</t>
+  </si>
+  <si>
+    <t>Vishay Semiconductors</t>
   </si>
   <si>
     <t>1N4150</t>
@@ -271,9 +274,6 @@
     <t>1N4150W-E3-08</t>
   </si>
   <si>
-    <t>Vishay Semiconductors</t>
-  </si>
-  <si>
     <t>575-8</t>
   </si>
   <si>
@@ -304,10 +304,10 @@
     <t>Infineon</t>
   </si>
   <si>
-    <t>3.9k</t>
-  </si>
-  <si>
-    <t>RES SMD 3.9K OHM 5% 1/2W 1210</t>
+    <t>5.1k</t>
+  </si>
+  <si>
+    <t>RES SMD 5.1K OHM 5% 1/2W 1210</t>
   </si>
   <si>
     <t>R1</t>
@@ -316,7 +316,7 @@
     <t>RESC1210(3225)_M</t>
   </si>
   <si>
-    <t>ERJ-14YJ392U</t>
+    <t>ERJ-14YJ512U</t>
   </si>
   <si>
     <t>Panasonic</t>
@@ -370,7 +370,7 @@
     <t>RES SMD 10K OHM 1% 1/10W 0603</t>
   </si>
   <si>
-    <t>R5, R12</t>
+    <t>R5</t>
   </si>
   <si>
     <t>RC0603FR-0710KL</t>
@@ -457,16 +457,7 @@
     <t>Susumu</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>RES SMD 10 OHM 1% 1/10W 0603</t>
-  </si>
-  <si>
-    <t>R13</t>
-  </si>
-  <si>
-    <t>RC0603FR-0710RL</t>
+    <t>R12</t>
   </si>
   <si>
     <t>24k</t>
@@ -905,7 +896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C17A9E-E603-4986-9D8F-676B6E57A11C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06936235-C663-43CD-85BD-CA11397C2C1C}">
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1013,7 +1004,7 @@
         <v>25</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -1088,7 +1079,7 @@
         <v>42</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>42</v>
@@ -1099,25 +1090,25 @@
     </row>
     <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
@@ -1125,25 +1116,25 @@
     </row>
     <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
@@ -1151,25 +1142,25 @@
     </row>
     <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H10" s="3">
         <v>1</v>
@@ -1177,25 +1168,25 @@
     </row>
     <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H11" s="3">
         <v>1</v>
@@ -1203,25 +1194,25 @@
     </row>
     <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -1229,28 +1220,28 @@
     </row>
     <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="H13" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.4">
@@ -1267,13 +1258,13 @@
         <v>74</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="H14" s="3">
         <v>1</v>
@@ -1281,25 +1272,25 @@
     </row>
     <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="H15" s="3">
         <v>1</v>
@@ -1400,7 +1391,7 @@
         <v>102</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>102</v>
@@ -1426,7 +1417,7 @@
         <v>107</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>107</v>
@@ -1452,7 +1443,7 @@
         <v>111</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>111</v>
@@ -1484,7 +1475,7 @@
         <v>115</v>
       </c>
       <c r="H22" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.4">
@@ -1504,7 +1495,7 @@
         <v>120</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>120</v>
@@ -1530,7 +1521,7 @@
         <v>124</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>124</v>
@@ -1556,7 +1547,7 @@
         <v>128</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>128</v>
@@ -1582,7 +1573,7 @@
         <v>132</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>132</v>
@@ -1608,7 +1599,7 @@
         <v>136</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>136</v>
@@ -1645,25 +1636,25 @@
     </row>
     <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="D29" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="H29" s="3">
         <v>1</v>
@@ -1671,25 +1662,25 @@
     </row>
     <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H30" s="3">
         <v>1</v>
@@ -1697,25 +1688,25 @@
     </row>
     <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="F31" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="G31" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="H31" s="3">
         <v>1</v>
@@ -1723,25 +1714,25 @@
     </row>
     <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="F32" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>161</v>
-      </c>
       <c r="G32" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H32" s="3">
         <v>1</v>
@@ -1749,70 +1740,70 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" tooltip="Component" display="'Wurth Electronics" xr:uid="{DA56C1BF-739A-48E7-BF91-EE523150B2CD}"/>
-    <hyperlink ref="G2" r:id="rId2" tooltip="Manufacturer" display="'870025574002" xr:uid="{9CF6E52E-DC78-414C-8699-6E125DDEA8D6}"/>
-    <hyperlink ref="F3" r:id="rId3" tooltip="Component" display="'Samsung" xr:uid="{FF7AAB62-C087-4496-8274-EDFE2A84EFE7}"/>
-    <hyperlink ref="G3" r:id="rId4" tooltip="Manufacturer" display="'CL32B106KBJNNWE" xr:uid="{54099932-7E31-47E3-83B5-D3A90A8C5FEF}"/>
-    <hyperlink ref="F4" r:id="rId5" tooltip="Component" display="'Yageo" xr:uid="{ACCCD745-E177-49DB-9747-11650A03A139}"/>
-    <hyperlink ref="G4" r:id="rId6" tooltip="Manufacturer" display="'CC0805KRX7R0BB223" xr:uid="{96981435-A5EA-4E76-AD42-7029E0BDCC14}"/>
-    <hyperlink ref="F5" r:id="rId7" tooltip="Component" display="'TDK" xr:uid="{5F7DE588-2855-4219-B896-878715C9C8B8}"/>
-    <hyperlink ref="G5" r:id="rId8" tooltip="Manufacturer" display="'C3216C0G2E103J115AE" xr:uid="{F13F9518-9D41-4421-A2D9-DF9B36BB50B6}"/>
-    <hyperlink ref="F6" r:id="rId9" tooltip="Component" display="'WIMA" xr:uid="{F2D590C6-21DA-42B9-850D-E8F6E0F9AB58}"/>
-    <hyperlink ref="G6" r:id="rId10" tooltip="Manufacturer" display="'MKP4F032203G00KSSD" xr:uid="{B8D1D34C-5110-4C08-9987-4ABB1380F38D}"/>
-    <hyperlink ref="F7" r:id="rId11" tooltip="Component" display="'Yageo" xr:uid="{80DAD51F-346F-4C7A-B59E-AE2ACE06BC3B}"/>
-    <hyperlink ref="G7" r:id="rId12" tooltip="Manufacturer" display="'CC0603JRX7R9BB104" xr:uid="{3EA4E829-12F3-471D-9B13-90295F12F936}"/>
-    <hyperlink ref="F8" r:id="rId13" tooltip="Component" display="'Murata" xr:uid="{C75F65BF-4695-49A0-8626-B7884641EFB7}"/>
-    <hyperlink ref="G8" r:id="rId14" tooltip="Manufacturer" display="'GRM1885C1H472JA01D" xr:uid="{305FA595-5E6D-4176-896F-BAF778608EDB}"/>
-    <hyperlink ref="F9" r:id="rId15" tooltip="Component" display="'Yageo" xr:uid="{51935C74-9DE4-44C5-AABE-039A2ABF50D9}"/>
-    <hyperlink ref="G9" r:id="rId16" tooltip="Manufacturer" display="'CC0603KRX7R8BB683" xr:uid="{9AE16679-26DE-430C-85FD-A19280315A06}"/>
-    <hyperlink ref="F10" r:id="rId17" tooltip="Component" display="'Yageo" xr:uid="{7C43B1EB-B9CE-4415-899B-2CD5B373FAF0}"/>
-    <hyperlink ref="G10" r:id="rId18" tooltip="Manufacturer" display="'CC0603KRX7R9BB223" xr:uid="{65AC1611-7C1A-44F1-ADE7-2740E9959BDF}"/>
-    <hyperlink ref="F11" r:id="rId19" tooltip="Component" display="'Murata" xr:uid="{6C54C877-5440-402C-92BF-409314925ACD}"/>
-    <hyperlink ref="G11" r:id="rId20" tooltip="Manufacturer" display="'GRM1885C1H182JA01D" xr:uid="{85A7EE7E-A7F7-4E3B-8643-D0880294A1A6}"/>
-    <hyperlink ref="F12" r:id="rId21" tooltip="Component" display="'Samsung" xr:uid="{FAE453DE-9D9E-4615-8541-1954B3316338}"/>
-    <hyperlink ref="G12" r:id="rId22" tooltip="Manufacturer" display="'CL10B105MO8NNWC" xr:uid="{D0C101AF-6138-4C3E-B87F-B040F43BB942}"/>
-    <hyperlink ref="F13" r:id="rId23" tooltip="Component" display="'Nichicon" xr:uid="{BF3BC84B-C95C-47E4-896B-CF440878ED65}"/>
-    <hyperlink ref="G13" r:id="rId24" tooltip="Manufacturer" display="'UVR1A102MPD" xr:uid="{C16B089B-C89F-453D-97E8-1AA2D120D931}"/>
-    <hyperlink ref="F14" r:id="rId25" tooltip="Component" display="'ON Semiconductor / Fairchild" xr:uid="{68380B79-B3F8-45BC-8D66-1EB19597B12D}"/>
-    <hyperlink ref="G14" r:id="rId26" tooltip="Manufacturer" display="'ES1G" xr:uid="{0070E750-4046-4224-B2C8-08A5DD854BC4}"/>
-    <hyperlink ref="F15" r:id="rId27" tooltip="Component" display="'Vishay Semiconductors" xr:uid="{82129600-787D-422A-8D4D-B330110196F9}"/>
-    <hyperlink ref="G15" r:id="rId28" tooltip="Manufacturer" display="'1N4150W-E3-08" xr:uid="{7B96F316-5CCF-449E-86FF-F30755119A05}"/>
-    <hyperlink ref="F16" r:id="rId29" tooltip="Component" display="'Keystone Electronics" xr:uid="{17FF0C23-17F9-4F18-9AC8-3B9BEB4D35AA}"/>
-    <hyperlink ref="G16" r:id="rId30" tooltip="Manufacturer" display="'575-8" xr:uid="{CFF53FF6-39EF-4A02-ADBC-0D17A853FB8B}"/>
-    <hyperlink ref="F17" r:id="rId31" tooltip="Component" display="'Infineon" xr:uid="{344E2451-54F5-4044-A064-0AE76CB4C855}"/>
-    <hyperlink ref="G17" r:id="rId32" tooltip="Manufacturer" display="'BSC059N04LS6ATMA1" xr:uid="{CC5DE1F7-8AE3-47CB-8A10-C8D63774C0F3}"/>
-    <hyperlink ref="F18" r:id="rId33" tooltip="Component" display="'Panasonic" xr:uid="{01E37985-B5DB-456E-BB88-4229B0F7BB47}"/>
-    <hyperlink ref="G18" r:id="rId34" tooltip="Manufacturer" display="'ERJ-14YJ392U" xr:uid="{6E4D05D7-B9B6-48BD-8AF1-68AF45393610}"/>
-    <hyperlink ref="F19" r:id="rId35" tooltip="Component" display="'Yageo" xr:uid="{37D20D25-9BFE-49DF-AF0B-BA191571D308}"/>
-    <hyperlink ref="G19" r:id="rId36" tooltip="Manufacturer" display="'RC0603FR-070RL" xr:uid="{98390D1C-5F64-4158-9FBF-407C640397D3}"/>
-    <hyperlink ref="F20" r:id="rId37" tooltip="Component" display="'Yageo" xr:uid="{E4FBFA98-AF34-4368-B4AB-CFA30EE844CD}"/>
-    <hyperlink ref="G20" r:id="rId38" tooltip="Manufacturer" display="'RC0603FR-0718K7L" xr:uid="{FD7AF5CE-9A54-4619-8D37-2F8CF88AE5FF}"/>
-    <hyperlink ref="F21" r:id="rId39" tooltip="Component" display="'Yageo" xr:uid="{6C3FD586-8F76-43E3-9D9D-99FE0B6FFB92}"/>
-    <hyperlink ref="G21" r:id="rId40" tooltip="Manufacturer" display="'RC0603FR-071M69L" xr:uid="{14D5369D-6E63-4EAE-ACFF-A1802E11CB10}"/>
-    <hyperlink ref="F22" r:id="rId41" tooltip="Component" display="'Yageo Phycomp" xr:uid="{7A228325-F013-44FE-A6FB-FA1A6BD17B04}"/>
-    <hyperlink ref="G22" r:id="rId42" tooltip="Manufacturer" display="'RC0603FR-0710KL" xr:uid="{A617AE84-2273-48C5-AB4E-4D72C1357B84}"/>
-    <hyperlink ref="F23" r:id="rId43" tooltip="Component" display="'Yageo" xr:uid="{2D8730AD-8FAB-4064-9891-6753291F7484}"/>
-    <hyperlink ref="G23" r:id="rId44" tooltip="Manufacturer" display="'RC0603FR-0720RL" xr:uid="{789AB43F-B159-4135-9C0B-FDAA9E076B97}"/>
-    <hyperlink ref="F24" r:id="rId45" tooltip="Component" display="'Yageo" xr:uid="{C325A51A-52F1-4310-B1BD-C0AD0A5186E2}"/>
-    <hyperlink ref="G24" r:id="rId46" tooltip="Manufacturer" display="'RC0603FR-078K66L" xr:uid="{2042541D-E2B2-4210-91FF-080ED3435AAA}"/>
-    <hyperlink ref="F25" r:id="rId47" tooltip="Component" display="'Yageo" xr:uid="{33882FCE-A073-458A-BBF7-9C030FDC40E5}"/>
-    <hyperlink ref="G25" r:id="rId48" tooltip="Manufacturer" display="'RC0603FR-0762KL" xr:uid="{5C0C460A-4B43-4AB0-A5FF-C4653CEC4476}"/>
-    <hyperlink ref="F26" r:id="rId49" tooltip="Component" display="'Yageo" xr:uid="{0D9A278A-A769-469A-B64F-543169EA4524}"/>
-    <hyperlink ref="G26" r:id="rId50" tooltip="Manufacturer" display="'RC0603FR-071K5L" xr:uid="{BA0D6C58-C559-42E6-89ED-FB910896DF29}"/>
-    <hyperlink ref="F27" r:id="rId51" tooltip="Component" display="'Yageo" xr:uid="{EA0381FC-C879-4BC2-B053-42A501083EF5}"/>
-    <hyperlink ref="G27" r:id="rId52" tooltip="Manufacturer" display="'RC0603FR-071KL" xr:uid="{FD86AC18-0F40-4BAB-9FA5-118D2F88F838}"/>
-    <hyperlink ref="F28" r:id="rId53" tooltip="Component" display="'Susumu" xr:uid="{8575A289-B5CC-4E70-B26F-556EF4025493}"/>
-    <hyperlink ref="G28" r:id="rId54" tooltip="Manufacturer" display="'KRL1632E-M-R018-F-T5" xr:uid="{E1CE854D-3F79-47EC-B3B0-BAC93A0CB01A}"/>
-    <hyperlink ref="F29" r:id="rId55" tooltip="Component" display="'Yageo" xr:uid="{4BCF5969-87D1-4E0A-B3ED-1143AC1576B9}"/>
-    <hyperlink ref="G29" r:id="rId56" tooltip="Manufacturer" display="'RC0603FR-0710RL" xr:uid="{A145ED60-1F45-4800-9835-841DE5BB749F}"/>
-    <hyperlink ref="F30" r:id="rId57" tooltip="Component" display="'Yageo" xr:uid="{4B573A45-8E96-444D-835C-65B8C0912578}"/>
-    <hyperlink ref="G30" r:id="rId58" tooltip="Manufacturer" display="'RC0603FR-0724KL" xr:uid="{0AC100D5-76DE-40DE-A8C4-E62FA1F06E56}"/>
-    <hyperlink ref="F31" r:id="rId59" tooltip="Component" display="'Coilcraft" xr:uid="{93071EB0-B835-4652-B3D3-2D08A93EEE12}"/>
-    <hyperlink ref="G31" r:id="rId60" tooltip="Manufacturer" display="'DA2032-ALD" xr:uid="{819B23BE-4ADB-4AB0-8323-9D8512B055ED}"/>
-    <hyperlink ref="F32" r:id="rId61" tooltip="Component" display="'Texas Instruments" xr:uid="{7156AF13-3115-4C89-8790-AB7AF328BECF}"/>
-    <hyperlink ref="G32" r:id="rId62" tooltip="Manufacturer" display="'LM5155DSSR" xr:uid="{F2818496-2F50-4A4E-A049-5807A5C85293}"/>
+    <hyperlink ref="F2" r:id="rId1" tooltip="Component" display="'Wurth Electronics" xr:uid="{45D17DE4-D301-45C0-B800-B8FD0977DC2B}"/>
+    <hyperlink ref="G2" r:id="rId2" tooltip="Manufacturer" display="'870025574002" xr:uid="{4AB38BE0-F438-4D6A-BD9E-A1EF6F56E3AF}"/>
+    <hyperlink ref="F3" r:id="rId3" tooltip="Component" display="'Samsung" xr:uid="{26824B5D-4323-4596-A095-C3884296C6B6}"/>
+    <hyperlink ref="G3" r:id="rId4" tooltip="Manufacturer" display="'CL32B106KBJNNWE" xr:uid="{B1BC3FD6-12E6-4A9D-B0A7-1AD8F3C9CF9E}"/>
+    <hyperlink ref="F4" tooltip="Component" display="'" xr:uid="{E71CB7F6-676A-499D-B98E-C358224FA693}"/>
+    <hyperlink ref="G4" tooltip="Manufacturer" display="'" xr:uid="{5EC9E490-CC9B-488C-ABE7-460D0EE59191}"/>
+    <hyperlink ref="F5" r:id="rId5" tooltip="Component" display="'TDK" xr:uid="{33D9B3B8-77B1-45C0-A1AC-4C71C3B1EB4D}"/>
+    <hyperlink ref="G5" r:id="rId6" tooltip="Manufacturer" display="'C3216C0G2E103J115AE" xr:uid="{B1DF5C6F-FE2C-4A47-B825-6CAA540140E4}"/>
+    <hyperlink ref="F6" r:id="rId7" tooltip="Component" display="'WIMA" xr:uid="{98FDA8B6-AF01-4BDB-93AF-7101C6C8E85D}"/>
+    <hyperlink ref="G6" r:id="rId8" tooltip="Manufacturer" display="'MKP4F032203G00KSSD" xr:uid="{6125915E-D75E-42FC-AFD1-AA96B7DCE567}"/>
+    <hyperlink ref="F7" r:id="rId9" tooltip="Component" display="'Yageo" xr:uid="{C363236E-925F-456F-B0EA-99425A8EC3C4}"/>
+    <hyperlink ref="G7" r:id="rId10" tooltip="Manufacturer" display="'CC0603JRX7R9BB104" xr:uid="{474C2DA3-47B6-441D-94B2-6050C6EC5DFF}"/>
+    <hyperlink ref="F8" r:id="rId11" tooltip="Component" display="'Murata" xr:uid="{DF79F38D-7188-4B25-AA3C-701694F3628C}"/>
+    <hyperlink ref="G8" r:id="rId12" tooltip="Manufacturer" display="'GRM1885C1H472JA01D" xr:uid="{F97D831B-01A6-4759-81ED-EBCB1BDCE44F}"/>
+    <hyperlink ref="F9" r:id="rId13" tooltip="Component" display="'Yageo" xr:uid="{54853EDD-A551-4D25-B8E3-2633BE54EE65}"/>
+    <hyperlink ref="G9" r:id="rId14" tooltip="Manufacturer" display="'CC0603KRX7R8BB683" xr:uid="{BA23A4A4-F083-4C4D-9BC5-03C47ED53C45}"/>
+    <hyperlink ref="F10" r:id="rId15" tooltip="Component" display="'Yageo" xr:uid="{C1F8DABD-A8D0-4469-996C-71ADF8AEF608}"/>
+    <hyperlink ref="G10" r:id="rId16" tooltip="Manufacturer" display="'CC0603KRX7R9BB223" xr:uid="{05D78C0D-BED4-411D-9213-86C577EEEB4D}"/>
+    <hyperlink ref="F11" r:id="rId17" tooltip="Component" display="'Murata" xr:uid="{C8102C68-758D-4485-B1A5-10F3AD7A0AA2}"/>
+    <hyperlink ref="G11" r:id="rId18" tooltip="Manufacturer" display="'GRM1885C1H182JA01D" xr:uid="{85FC9193-CA1F-44F3-972A-6BC54A617544}"/>
+    <hyperlink ref="F12" r:id="rId19" tooltip="Component" display="'Samsung" xr:uid="{16989080-13DF-4D07-8C05-5FCE94443D9C}"/>
+    <hyperlink ref="G12" r:id="rId20" tooltip="Manufacturer" display="'CL10B105MO8NNWC" xr:uid="{37EC8CD8-0763-4927-994E-B88C8076E717}"/>
+    <hyperlink ref="F13" r:id="rId21" tooltip="Component" display="'Yageo" xr:uid="{F4AA4A4A-FE74-4354-941F-ED602F5F75C7}"/>
+    <hyperlink ref="G13" r:id="rId22" tooltip="Manufacturer" display="'CC0805KKX7R9BB105" xr:uid="{D5B35F38-8EF4-4973-83F1-A2969F27B009}"/>
+    <hyperlink ref="F14" r:id="rId23" tooltip="Component" display="'Vishay Semiconductors" xr:uid="{1B81D473-EA1D-4EF7-B8E9-03DBB56325BB}"/>
+    <hyperlink ref="G14" r:id="rId24" tooltip="Manufacturer" display="'VS-3EMH06-M3/5AT" xr:uid="{2FA1778C-B7E9-4C23-836A-ED01CE24A1BC}"/>
+    <hyperlink ref="F15" r:id="rId25" tooltip="Component" display="'Vishay Semiconductors" xr:uid="{0A30E16A-3413-4DB8-8D88-4BE6B023A2B7}"/>
+    <hyperlink ref="G15" r:id="rId26" tooltip="Manufacturer" display="'1N4150W-E3-08" xr:uid="{8ACFFB48-1F93-4BF0-B70F-21552FECF088}"/>
+    <hyperlink ref="F16" r:id="rId27" tooltip="Component" display="'Keystone Electronics" xr:uid="{8875D71C-2749-42F7-BFAD-53184A1B78E5}"/>
+    <hyperlink ref="G16" r:id="rId28" tooltip="Manufacturer" display="'575-8" xr:uid="{FD228FED-9C90-4A66-BE93-11C1BB4046BA}"/>
+    <hyperlink ref="F17" r:id="rId29" tooltip="Component" display="'Infineon" xr:uid="{5324B96F-DA54-4CDB-AD6C-EDF1024E9F78}"/>
+    <hyperlink ref="G17" r:id="rId30" tooltip="Manufacturer" display="'BSC059N04LS6ATMA1" xr:uid="{25269910-DA28-4B44-8F97-F1CB76C712EA}"/>
+    <hyperlink ref="F18" r:id="rId31" tooltip="Component" display="'Panasonic" xr:uid="{81BB5D1F-0B19-4FB7-8DED-0011321334B7}"/>
+    <hyperlink ref="G18" r:id="rId32" tooltip="Manufacturer" display="'ERJ-14YJ512U" xr:uid="{5EAD21D8-9FA3-4D55-841B-EB79E3F35C86}"/>
+    <hyperlink ref="F19" r:id="rId33" tooltip="Component" display="'Yageo" xr:uid="{A94E3696-F7E1-4FDA-BDD5-B6EA828A2F10}"/>
+    <hyperlink ref="G19" r:id="rId34" tooltip="Manufacturer" display="'RC0603FR-070RL" xr:uid="{097B9A27-1B4F-4C09-AFB8-447E42E7014B}"/>
+    <hyperlink ref="F20" r:id="rId35" tooltip="Component" display="'Yageo" xr:uid="{1A9DFAB1-5089-4BF1-9719-C6227EE1AAB7}"/>
+    <hyperlink ref="G20" r:id="rId36" tooltip="Manufacturer" display="'RC0603FR-0718K7L" xr:uid="{FCBDBEE7-9B8C-43B3-B944-BB87CF072A9E}"/>
+    <hyperlink ref="F21" r:id="rId37" tooltip="Component" display="'Yageo" xr:uid="{7ECC627A-9A27-493B-8A24-CE45E6B9FA4D}"/>
+    <hyperlink ref="G21" r:id="rId38" tooltip="Manufacturer" display="'RC0603FR-071M69L" xr:uid="{016C3A20-E986-42F6-8005-54E43F8E28AD}"/>
+    <hyperlink ref="F22" r:id="rId39" tooltip="Component" display="'Yageo Phycomp" xr:uid="{4BFBF27D-EC74-4A39-8429-C60CE645A8D8}"/>
+    <hyperlink ref="G22" r:id="rId40" tooltip="Manufacturer" display="'RC0603FR-0710KL" xr:uid="{DB530F29-61E2-4477-820A-D9FFB2E3FF40}"/>
+    <hyperlink ref="F23" r:id="rId41" tooltip="Component" display="'Yageo" xr:uid="{6143DD2B-C5AE-402B-BD35-00BC147B8DBC}"/>
+    <hyperlink ref="G23" r:id="rId42" tooltip="Manufacturer" display="'RC0603FR-0720RL" xr:uid="{91E7DC7E-89E3-4A1C-A959-FA07BF5905C8}"/>
+    <hyperlink ref="F24" r:id="rId43" tooltip="Component" display="'Yageo" xr:uid="{8459197F-68BA-4B8A-9ABF-5CDB921E8721}"/>
+    <hyperlink ref="G24" r:id="rId44" tooltip="Manufacturer" display="'RC0603FR-078K66L" xr:uid="{30C3ED80-0543-4F64-B45B-9F5F8033DE52}"/>
+    <hyperlink ref="F25" r:id="rId45" tooltip="Component" display="'Yageo" xr:uid="{2EF9AFFF-2D1E-42F6-9FD0-1B2AE15BD24B}"/>
+    <hyperlink ref="G25" r:id="rId46" tooltip="Manufacturer" display="'RC0603FR-0762KL" xr:uid="{556A1BC8-C3E8-4DDA-B5D8-FDD0998F5DEC}"/>
+    <hyperlink ref="F26" r:id="rId47" tooltip="Component" display="'Yageo" xr:uid="{5C1843AA-6930-44D9-92AE-9E51D2191F8D}"/>
+    <hyperlink ref="G26" r:id="rId48" tooltip="Manufacturer" display="'RC0603FR-071K5L" xr:uid="{31A02EC9-D3A5-48FD-A006-1F0CEB184906}"/>
+    <hyperlink ref="F27" r:id="rId49" tooltip="Component" display="'Yageo" xr:uid="{FE87DFC8-3518-45DA-B3A0-86388188CB55}"/>
+    <hyperlink ref="G27" r:id="rId50" tooltip="Manufacturer" display="'RC0603FR-071KL" xr:uid="{51C293E1-96E2-4C03-B472-2AF84196F0D4}"/>
+    <hyperlink ref="F28" r:id="rId51" tooltip="Component" display="'Susumu" xr:uid="{7C065EC6-4224-4603-B80D-A9901F0C9ECB}"/>
+    <hyperlink ref="G28" r:id="rId52" tooltip="Manufacturer" display="'KRL1632E-M-R018-F-T5" xr:uid="{9E4D8EAF-BE07-40C3-B4CB-99411B991BFE}"/>
+    <hyperlink ref="F29" r:id="rId53" tooltip="Component" display="'Yageo" xr:uid="{B24E76E7-55D3-4948-9A6E-4270077F33BE}"/>
+    <hyperlink ref="G29" r:id="rId54" tooltip="Manufacturer" display="'RC0603FR-0720RL" xr:uid="{ABE25BFE-CAC8-4344-BEA5-BF84280A1E06}"/>
+    <hyperlink ref="F30" r:id="rId55" tooltip="Component" display="'Yageo" xr:uid="{CDD9A954-5F8F-44D9-8F2C-A73F7E49C74A}"/>
+    <hyperlink ref="G30" r:id="rId56" tooltip="Manufacturer" display="'RC0603FR-0724KL" xr:uid="{2C6708B1-9D92-4A14-8BEF-5374BE300718}"/>
+    <hyperlink ref="F31" r:id="rId57" tooltip="Component" display="'Coilcraft" xr:uid="{74DAC459-7DA7-4D86-A236-9DAFBDA31013}"/>
+    <hyperlink ref="G31" r:id="rId58" tooltip="Manufacturer" display="'DA2032-ALD" xr:uid="{C48B8254-CE13-4006-AA08-E2E673A3136E}"/>
+    <hyperlink ref="F32" r:id="rId59" tooltip="Component" display="'Texas Instruments" xr:uid="{E331FBC1-B3E3-4AC3-B3F4-E243F6B2ECAF}"/>
+    <hyperlink ref="G32" r:id="rId60" tooltip="Manufacturer" display="'LM5155DSSR" xr:uid="{F7F288D4-B7E3-415C-AF32-6596B5344191}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId63"/>
+  <pageSetup orientation="portrait" r:id="rId61"/>
 </worksheet>
 </file>
--- a/Outputs/Eval board/BOM/Bill of Materials-Flyback Eval.xlsx
+++ b/Outputs/Eval board/BOM/Bill of Materials-Flyback Eval.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{971CD09D-0EF4-444C-ABFC-3ED13B7C44B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B929BA5-55F4-4ADB-B8DC-459C680E731A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59985" yWindow="15570" windowWidth="17145" windowHeight="15465" xr2:uid="{243E9A0A-311D-4583-A146-2CC0D2427A64}"/>
+    <workbookView xWindow="8290" yWindow="2750" windowWidth="23040" windowHeight="15470" xr2:uid="{74B28163-C814-4934-9FAA-5626E010CB3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Flyback Eval" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="149">
   <si>
     <t>Comment</t>
   </si>
@@ -88,10 +88,10 @@
     <t>Samsung</t>
   </si>
   <si>
-    <t>18n</t>
-  </si>
-  <si>
-    <t>Cap Ceramic 0.018uF 100V X7R 10% SMD 0805 125C Paper T/R</t>
+    <t>22n</t>
+  </si>
+  <si>
+    <t>CAP CER 0.022UF 100V X7R 0805</t>
   </si>
   <si>
     <t>C6</t>
@@ -100,10 +100,10 @@
     <t>CAPC0805(2012)100_M</t>
   </si>
   <si>
-    <t>CC0805KRX7R0BB183</t>
-  </si>
-  <si>
-    <t/>
+    <t>CC0805KRX7R0BB223</t>
+  </si>
+  <si>
+    <t>Yageo</t>
   </si>
   <si>
     <t>10n</t>
@@ -157,28 +157,22 @@
     <t>CC0603JRX7R9BB104</t>
   </si>
   <si>
-    <t>Yageo</t>
-  </si>
-  <si>
-    <t>4.7n</t>
-  </si>
-  <si>
-    <t>CAP CER 4700PF 50V C0G/NP0 0603</t>
+    <t>Cap Ceramic 0.022uF 16V X7R 10% SMD 0603 125°C Paper T/R</t>
   </si>
   <si>
     <t>C11</t>
   </si>
   <si>
-    <t>GRM1885C1H472JA01D</t>
-  </si>
-  <si>
-    <t>Murata</t>
-  </si>
-  <si>
-    <t>68n</t>
-  </si>
-  <si>
-    <t>CAPACITOR CERAMIC 0.068UF 25V, X7R, 10%, 0603</t>
+    <t>C0603C223K4RACTU</t>
+  </si>
+  <si>
+    <t>KEMET</t>
+  </si>
+  <si>
+    <t>680p</t>
+  </si>
+  <si>
+    <t>Cap, Mlcc, C0g, 680Pf, 10V, 0603</t>
   </si>
   <si>
     <t>C12</t>
@@ -187,31 +181,19 @@
     <t>CAPC0603(1608)100_M</t>
   </si>
   <si>
-    <t>CC0603KRX7R8BB683</t>
-  </si>
-  <si>
-    <t>22n</t>
-  </si>
-  <si>
-    <t>YAGEO   CC0603KRX7R9BB223   CERAMIC CAPACITOR 0.022UF 50V, X7R, 10%, 0603, FULL REEL</t>
+    <t>885012006013</t>
+  </si>
+  <si>
+    <t>47n</t>
+  </si>
+  <si>
+    <t>CAP CER 0.047UF 50V X7R 0603</t>
   </si>
   <si>
     <t>C13</t>
   </si>
   <si>
-    <t>CC0603KRX7R9BB223</t>
-  </si>
-  <si>
-    <t>1.8n</t>
-  </si>
-  <si>
-    <t>MURATA 1800 pF, 50 V,  5%, C0G / NP0</t>
-  </si>
-  <si>
-    <t>C14</t>
-  </si>
-  <si>
-    <t>GRM1885C1H182JA01D</t>
+    <t>CC0603KRX7R9BB473</t>
   </si>
   <si>
     <t>1u</t>
@@ -328,7 +310,7 @@
     <t>RES SMD 0 OHM JUMPER 1/10W 0603</t>
   </si>
   <si>
-    <t>R2</t>
+    <t>R2, R10</t>
   </si>
   <si>
     <t>RESC0603(1608)_M</t>
@@ -403,46 +385,34 @@
     <t>RC0603FR-078K66L</t>
   </si>
   <si>
-    <t>62k</t>
-  </si>
-  <si>
-    <t>RES SMD 62K OHM 1% 1/10W 0603</t>
+    <t>180k</t>
+  </si>
+  <si>
+    <t>RES SMD 180K OHM 1% 1/10W 0603</t>
   </si>
   <si>
     <t>R8</t>
   </si>
   <si>
-    <t>RC0603FR-0762KL</t>
-  </si>
-  <si>
-    <t>1.5k</t>
-  </si>
-  <si>
-    <t>Res Thick Film 0603 1.5K Ohm 1% 0.1W(1/10W) ±100ppm/C Epoxy Pad SMD T/R</t>
+    <t>RC0603FR-07180KL</t>
+  </si>
+  <si>
+    <t>33k</t>
+  </si>
+  <si>
+    <t>YAGEO - RC0603FR-0733KL - Surface Mount Thick Film Resistor, RC Series, 33 kohm, 100 mW, - 1%, 50 V, 0603 [1608 Metric] RoHS Compliant: Yes</t>
   </si>
   <si>
     <t>R9</t>
   </si>
   <si>
-    <t>RC0603FR-071K5L</t>
-  </si>
-  <si>
-    <t>1k</t>
-  </si>
-  <si>
-    <t>RES SMD 1K OHM 1% 1/10W 0603</t>
-  </si>
-  <si>
-    <t>R10</t>
-  </si>
-  <si>
-    <t>RC0603FR-071KL</t>
-  </si>
-  <si>
-    <t>18m</t>
-  </si>
-  <si>
-    <t>RES 0.018 OHM 1% 3/4W 1206</t>
+    <t>RC0603FR-0733KL</t>
+  </si>
+  <si>
+    <t>33m</t>
+  </si>
+  <si>
+    <t>TR / Current Sense Resistors 1206 0.75W 0.033ohm 1% 50ppm</t>
   </si>
   <si>
     <t>R11</t>
@@ -451,7 +421,7 @@
     <t>RESC1206(3216)_N</t>
   </si>
   <si>
-    <t>KRL1632E-M-R018-F-T5</t>
+    <t>KRL1632E-M-R033-F-T5</t>
   </si>
   <si>
     <t>Susumu</t>
@@ -896,8 +866,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06936235-C663-43CD-85BD-CA11397C2C1C}">
-  <dimension ref="A1:H32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DCFF0F1-CCE9-4F91-8F00-22B8B3F1F6E8}">
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1004,7 +974,7 @@
         <v>25</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -1079,7 +1049,7 @@
         <v>42</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>42</v>
@@ -1090,25 +1060,25 @@
     </row>
     <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
@@ -1116,25 +1086,25 @@
     </row>
     <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
@@ -1142,25 +1112,25 @@
     </row>
     <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H10" s="3">
         <v>1</v>
@@ -1168,25 +1138,25 @@
     </row>
     <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F11" s="4" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H11" s="3">
         <v>1</v>
@@ -1194,54 +1164,54 @@
     </row>
     <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F12" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H12" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="G13" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.4">
@@ -1261,7 +1231,7 @@
         <v>75</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>75</v>
@@ -1272,54 +1242,54 @@
     </row>
     <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="H15" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>85</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H16" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.4">
@@ -1365,36 +1335,36 @@
         <v>96</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>96</v>
       </c>
       <c r="H18" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F19" s="4" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H19" s="3">
         <v>1</v>
@@ -1402,25 +1372,25 @@
     </row>
     <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="F20" s="4" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H20" s="3">
         <v>1</v>
@@ -1428,25 +1398,25 @@
     </row>
     <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="D21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="F21" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="G21" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H21" s="3">
         <v>1</v>
@@ -1454,25 +1424,25 @@
     </row>
     <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F22" s="4" t="s">
-        <v>116</v>
+        <v>25</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H22" s="3">
         <v>1</v>
@@ -1480,25 +1450,25 @@
     </row>
     <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="D23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F23" s="4" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H23" s="3">
         <v>1</v>
@@ -1506,25 +1476,25 @@
     </row>
     <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="D24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F24" s="4" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H24" s="3">
         <v>1</v>
@@ -1532,25 +1502,25 @@
     </row>
     <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="D25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="F25" s="4" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H25" s="3">
         <v>1</v>
@@ -1558,25 +1528,25 @@
     </row>
     <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="G26" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H26" s="3">
         <v>1</v>
@@ -1584,25 +1554,25 @@
     </row>
     <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="D27" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="H27" s="3">
         <v>1</v>
@@ -1610,25 +1580,25 @@
     </row>
     <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="F28" s="4" t="s">
-        <v>142</v>
+        <v>25</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H28" s="3">
         <v>1</v>
@@ -1636,25 +1606,25 @@
     </row>
     <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="H29" s="3">
         <v>1</v>
@@ -1662,22 +1632,22 @@
     </row>
     <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>147</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>43</v>
+        <v>148</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>147</v>
@@ -1686,124 +1656,68 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.4">
-      <c r="A31" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="H31" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.4">
-      <c r="A32" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" tooltip="Component" display="'Wurth Electronics" xr:uid="{45D17DE4-D301-45C0-B800-B8FD0977DC2B}"/>
-    <hyperlink ref="G2" r:id="rId2" tooltip="Manufacturer" display="'870025574002" xr:uid="{4AB38BE0-F438-4D6A-BD9E-A1EF6F56E3AF}"/>
-    <hyperlink ref="F3" r:id="rId3" tooltip="Component" display="'Samsung" xr:uid="{26824B5D-4323-4596-A095-C3884296C6B6}"/>
-    <hyperlink ref="G3" r:id="rId4" tooltip="Manufacturer" display="'CL32B106KBJNNWE" xr:uid="{B1BC3FD6-12E6-4A9D-B0A7-1AD8F3C9CF9E}"/>
-    <hyperlink ref="F4" tooltip="Component" display="'" xr:uid="{E71CB7F6-676A-499D-B98E-C358224FA693}"/>
-    <hyperlink ref="G4" tooltip="Manufacturer" display="'" xr:uid="{5EC9E490-CC9B-488C-ABE7-460D0EE59191}"/>
-    <hyperlink ref="F5" r:id="rId5" tooltip="Component" display="'TDK" xr:uid="{33D9B3B8-77B1-45C0-A1AC-4C71C3B1EB4D}"/>
-    <hyperlink ref="G5" r:id="rId6" tooltip="Manufacturer" display="'C3216C0G2E103J115AE" xr:uid="{B1DF5C6F-FE2C-4A47-B825-6CAA540140E4}"/>
-    <hyperlink ref="F6" r:id="rId7" tooltip="Component" display="'WIMA" xr:uid="{98FDA8B6-AF01-4BDB-93AF-7101C6C8E85D}"/>
-    <hyperlink ref="G6" r:id="rId8" tooltip="Manufacturer" display="'MKP4F032203G00KSSD" xr:uid="{6125915E-D75E-42FC-AFD1-AA96B7DCE567}"/>
-    <hyperlink ref="F7" r:id="rId9" tooltip="Component" display="'Yageo" xr:uid="{C363236E-925F-456F-B0EA-99425A8EC3C4}"/>
-    <hyperlink ref="G7" r:id="rId10" tooltip="Manufacturer" display="'CC0603JRX7R9BB104" xr:uid="{474C2DA3-47B6-441D-94B2-6050C6EC5DFF}"/>
-    <hyperlink ref="F8" r:id="rId11" tooltip="Component" display="'Murata" xr:uid="{DF79F38D-7188-4B25-AA3C-701694F3628C}"/>
-    <hyperlink ref="G8" r:id="rId12" tooltip="Manufacturer" display="'GRM1885C1H472JA01D" xr:uid="{F97D831B-01A6-4759-81ED-EBCB1BDCE44F}"/>
-    <hyperlink ref="F9" r:id="rId13" tooltip="Component" display="'Yageo" xr:uid="{54853EDD-A551-4D25-B8E3-2633BE54EE65}"/>
-    <hyperlink ref="G9" r:id="rId14" tooltip="Manufacturer" display="'CC0603KRX7R8BB683" xr:uid="{BA23A4A4-F083-4C4D-9BC5-03C47ED53C45}"/>
-    <hyperlink ref="F10" r:id="rId15" tooltip="Component" display="'Yageo" xr:uid="{C1F8DABD-A8D0-4469-996C-71ADF8AEF608}"/>
-    <hyperlink ref="G10" r:id="rId16" tooltip="Manufacturer" display="'CC0603KRX7R9BB223" xr:uid="{05D78C0D-BED4-411D-9213-86C577EEEB4D}"/>
-    <hyperlink ref="F11" r:id="rId17" tooltip="Component" display="'Murata" xr:uid="{C8102C68-758D-4485-B1A5-10F3AD7A0AA2}"/>
-    <hyperlink ref="G11" r:id="rId18" tooltip="Manufacturer" display="'GRM1885C1H182JA01D" xr:uid="{85FC9193-CA1F-44F3-972A-6BC54A617544}"/>
-    <hyperlink ref="F12" r:id="rId19" tooltip="Component" display="'Samsung" xr:uid="{16989080-13DF-4D07-8C05-5FCE94443D9C}"/>
-    <hyperlink ref="G12" r:id="rId20" tooltip="Manufacturer" display="'CL10B105MO8NNWC" xr:uid="{37EC8CD8-0763-4927-994E-B88C8076E717}"/>
-    <hyperlink ref="F13" r:id="rId21" tooltip="Component" display="'Yageo" xr:uid="{F4AA4A4A-FE74-4354-941F-ED602F5F75C7}"/>
-    <hyperlink ref="G13" r:id="rId22" tooltip="Manufacturer" display="'CC0805KKX7R9BB105" xr:uid="{D5B35F38-8EF4-4973-83F1-A2969F27B009}"/>
-    <hyperlink ref="F14" r:id="rId23" tooltip="Component" display="'Vishay Semiconductors" xr:uid="{1B81D473-EA1D-4EF7-B8E9-03DBB56325BB}"/>
-    <hyperlink ref="G14" r:id="rId24" tooltip="Manufacturer" display="'VS-3EMH06-M3/5AT" xr:uid="{2FA1778C-B7E9-4C23-836A-ED01CE24A1BC}"/>
-    <hyperlink ref="F15" r:id="rId25" tooltip="Component" display="'Vishay Semiconductors" xr:uid="{0A30E16A-3413-4DB8-8D88-4BE6B023A2B7}"/>
-    <hyperlink ref="G15" r:id="rId26" tooltip="Manufacturer" display="'1N4150W-E3-08" xr:uid="{8ACFFB48-1F93-4BF0-B70F-21552FECF088}"/>
-    <hyperlink ref="F16" r:id="rId27" tooltip="Component" display="'Keystone Electronics" xr:uid="{8875D71C-2749-42F7-BFAD-53184A1B78E5}"/>
-    <hyperlink ref="G16" r:id="rId28" tooltip="Manufacturer" display="'575-8" xr:uid="{FD228FED-9C90-4A66-BE93-11C1BB4046BA}"/>
-    <hyperlink ref="F17" r:id="rId29" tooltip="Component" display="'Infineon" xr:uid="{5324B96F-DA54-4CDB-AD6C-EDF1024E9F78}"/>
-    <hyperlink ref="G17" r:id="rId30" tooltip="Manufacturer" display="'BSC059N04LS6ATMA1" xr:uid="{25269910-DA28-4B44-8F97-F1CB76C712EA}"/>
-    <hyperlink ref="F18" r:id="rId31" tooltip="Component" display="'Panasonic" xr:uid="{81BB5D1F-0B19-4FB7-8DED-0011321334B7}"/>
-    <hyperlink ref="G18" r:id="rId32" tooltip="Manufacturer" display="'ERJ-14YJ512U" xr:uid="{5EAD21D8-9FA3-4D55-841B-EB79E3F35C86}"/>
-    <hyperlink ref="F19" r:id="rId33" tooltip="Component" display="'Yageo" xr:uid="{A94E3696-F7E1-4FDA-BDD5-B6EA828A2F10}"/>
-    <hyperlink ref="G19" r:id="rId34" tooltip="Manufacturer" display="'RC0603FR-070RL" xr:uid="{097B9A27-1B4F-4C09-AFB8-447E42E7014B}"/>
-    <hyperlink ref="F20" r:id="rId35" tooltip="Component" display="'Yageo" xr:uid="{1A9DFAB1-5089-4BF1-9719-C6227EE1AAB7}"/>
-    <hyperlink ref="G20" r:id="rId36" tooltip="Manufacturer" display="'RC0603FR-0718K7L" xr:uid="{FCBDBEE7-9B8C-43B3-B944-BB87CF072A9E}"/>
-    <hyperlink ref="F21" r:id="rId37" tooltip="Component" display="'Yageo" xr:uid="{7ECC627A-9A27-493B-8A24-CE45E6B9FA4D}"/>
-    <hyperlink ref="G21" r:id="rId38" tooltip="Manufacturer" display="'RC0603FR-071M69L" xr:uid="{016C3A20-E986-42F6-8005-54E43F8E28AD}"/>
-    <hyperlink ref="F22" r:id="rId39" tooltip="Component" display="'Yageo Phycomp" xr:uid="{4BFBF27D-EC74-4A39-8429-C60CE645A8D8}"/>
-    <hyperlink ref="G22" r:id="rId40" tooltip="Manufacturer" display="'RC0603FR-0710KL" xr:uid="{DB530F29-61E2-4477-820A-D9FFB2E3FF40}"/>
-    <hyperlink ref="F23" r:id="rId41" tooltip="Component" display="'Yageo" xr:uid="{6143DD2B-C5AE-402B-BD35-00BC147B8DBC}"/>
-    <hyperlink ref="G23" r:id="rId42" tooltip="Manufacturer" display="'RC0603FR-0720RL" xr:uid="{91E7DC7E-89E3-4A1C-A959-FA07BF5905C8}"/>
-    <hyperlink ref="F24" r:id="rId43" tooltip="Component" display="'Yageo" xr:uid="{8459197F-68BA-4B8A-9ABF-5CDB921E8721}"/>
-    <hyperlink ref="G24" r:id="rId44" tooltip="Manufacturer" display="'RC0603FR-078K66L" xr:uid="{30C3ED80-0543-4F64-B45B-9F5F8033DE52}"/>
-    <hyperlink ref="F25" r:id="rId45" tooltip="Component" display="'Yageo" xr:uid="{2EF9AFFF-2D1E-42F6-9FD0-1B2AE15BD24B}"/>
-    <hyperlink ref="G25" r:id="rId46" tooltip="Manufacturer" display="'RC0603FR-0762KL" xr:uid="{556A1BC8-C3E8-4DDA-B5D8-FDD0998F5DEC}"/>
-    <hyperlink ref="F26" r:id="rId47" tooltip="Component" display="'Yageo" xr:uid="{5C1843AA-6930-44D9-92AE-9E51D2191F8D}"/>
-    <hyperlink ref="G26" r:id="rId48" tooltip="Manufacturer" display="'RC0603FR-071K5L" xr:uid="{31A02EC9-D3A5-48FD-A006-1F0CEB184906}"/>
-    <hyperlink ref="F27" r:id="rId49" tooltip="Component" display="'Yageo" xr:uid="{FE87DFC8-3518-45DA-B3A0-86388188CB55}"/>
-    <hyperlink ref="G27" r:id="rId50" tooltip="Manufacturer" display="'RC0603FR-071KL" xr:uid="{51C293E1-96E2-4C03-B472-2AF84196F0D4}"/>
-    <hyperlink ref="F28" r:id="rId51" tooltip="Component" display="'Susumu" xr:uid="{7C065EC6-4224-4603-B80D-A9901F0C9ECB}"/>
-    <hyperlink ref="G28" r:id="rId52" tooltip="Manufacturer" display="'KRL1632E-M-R018-F-T5" xr:uid="{9E4D8EAF-BE07-40C3-B4CB-99411B991BFE}"/>
-    <hyperlink ref="F29" r:id="rId53" tooltip="Component" display="'Yageo" xr:uid="{B24E76E7-55D3-4948-9A6E-4270077F33BE}"/>
-    <hyperlink ref="G29" r:id="rId54" tooltip="Manufacturer" display="'RC0603FR-0720RL" xr:uid="{ABE25BFE-CAC8-4344-BEA5-BF84280A1E06}"/>
-    <hyperlink ref="F30" r:id="rId55" tooltip="Component" display="'Yageo" xr:uid="{CDD9A954-5F8F-44D9-8F2C-A73F7E49C74A}"/>
-    <hyperlink ref="G30" r:id="rId56" tooltip="Manufacturer" display="'RC0603FR-0724KL" xr:uid="{2C6708B1-9D92-4A14-8BEF-5374BE300718}"/>
-    <hyperlink ref="F31" r:id="rId57" tooltip="Component" display="'Coilcraft" xr:uid="{74DAC459-7DA7-4D86-A236-9DAFBDA31013}"/>
-    <hyperlink ref="G31" r:id="rId58" tooltip="Manufacturer" display="'DA2032-ALD" xr:uid="{C48B8254-CE13-4006-AA08-E2E673A3136E}"/>
-    <hyperlink ref="F32" r:id="rId59" tooltip="Component" display="'Texas Instruments" xr:uid="{E331FBC1-B3E3-4AC3-B3F4-E243F6B2ECAF}"/>
-    <hyperlink ref="G32" r:id="rId60" tooltip="Manufacturer" display="'LM5155DSSR" xr:uid="{F7F288D4-B7E3-415C-AF32-6596B5344191}"/>
+    <hyperlink ref="F2" r:id="rId1" tooltip="Component" display="'Wurth Electronics" xr:uid="{F499F969-90DD-4A6F-8E01-9BCCEDE45816}"/>
+    <hyperlink ref="G2" r:id="rId2" tooltip="Manufacturer" display="'870025574002" xr:uid="{6D85DCEC-7762-44DC-B795-62705506AE42}"/>
+    <hyperlink ref="F3" r:id="rId3" tooltip="Component" display="'Samsung" xr:uid="{74173A15-0303-4244-B790-E44905F94610}"/>
+    <hyperlink ref="G3" r:id="rId4" tooltip="Manufacturer" display="'CL32B106KBJNNWE" xr:uid="{80A3928A-3183-47BB-BFFD-6B48D8F77A90}"/>
+    <hyperlink ref="F4" r:id="rId5" tooltip="Component" display="'Yageo" xr:uid="{C9A0F882-10AA-473C-8A0A-A35D4DD52617}"/>
+    <hyperlink ref="G4" r:id="rId6" tooltip="Manufacturer" display="'CC0805KRX7R0BB223" xr:uid="{8C3EC06B-215F-427B-A2BB-7F1124378C04}"/>
+    <hyperlink ref="F5" r:id="rId7" tooltip="Component" display="'TDK" xr:uid="{141E3928-4AD9-44C9-8A10-BF9F4126B174}"/>
+    <hyperlink ref="G5" r:id="rId8" tooltip="Manufacturer" display="'C3216C0G2E103J115AE" xr:uid="{63CEFE49-A129-409E-8DCF-B1345C1BDB24}"/>
+    <hyperlink ref="F6" r:id="rId9" tooltip="Component" display="'WIMA" xr:uid="{821F2E70-D240-4D14-9ABC-A5991E457676}"/>
+    <hyperlink ref="G6" r:id="rId10" tooltip="Manufacturer" display="'MKP4F032203G00KSSD" xr:uid="{AC734FE7-6A7A-4798-92FD-AFADC7443F7C}"/>
+    <hyperlink ref="F7" r:id="rId11" tooltip="Component" display="'Yageo" xr:uid="{CB12DF7B-AD92-4635-AC82-F6A168217024}"/>
+    <hyperlink ref="G7" r:id="rId12" tooltip="Manufacturer" display="'CC0603JRX7R9BB104" xr:uid="{9CE88EEB-50B1-4C50-98B2-EFE31E504EC4}"/>
+    <hyperlink ref="F8" r:id="rId13" tooltip="Component" display="'KEMET" xr:uid="{6B8E95E4-F987-4CD5-B214-8200F8E2F1AD}"/>
+    <hyperlink ref="G8" r:id="rId14" tooltip="Manufacturer" display="'C0603C223K4RACTU" xr:uid="{76B063DB-151C-42E9-A107-8B03F7A9A1BC}"/>
+    <hyperlink ref="F9" r:id="rId15" tooltip="Component" display="'Wurth Electronics" xr:uid="{5EAA8D05-37B0-438B-BC52-E312708A9ACD}"/>
+    <hyperlink ref="G9" r:id="rId16" tooltip="Manufacturer" display="'885012006013" xr:uid="{55E8DA8F-F75E-47FC-AC90-1AA5F8F8731F}"/>
+    <hyperlink ref="F10" r:id="rId17" tooltip="Component" display="'Yageo" xr:uid="{A91D5A42-F287-431E-A06D-C7AE6E8F193B}"/>
+    <hyperlink ref="G10" r:id="rId18" tooltip="Manufacturer" display="'CC0603KRX7R9BB473" xr:uid="{622610E6-01A5-4EC9-AD57-3B4A2B249AF3}"/>
+    <hyperlink ref="F11" r:id="rId19" tooltip="Component" display="'Samsung" xr:uid="{8D973A6C-31CE-4952-A216-0D79E2F9A22B}"/>
+    <hyperlink ref="G11" r:id="rId20" tooltip="Manufacturer" display="'CL10B105MO8NNWC" xr:uid="{DAEC3EB4-E0F7-43AA-A86E-16EB012E924D}"/>
+    <hyperlink ref="F12" r:id="rId21" tooltip="Component" display="'Yageo" xr:uid="{C09FF1BE-56B8-47C4-A371-4896976807BE}"/>
+    <hyperlink ref="G12" r:id="rId22" tooltip="Manufacturer" display="'CC0805KKX7R9BB105" xr:uid="{65B823DC-3F79-4D7E-843B-5581FE36BAB3}"/>
+    <hyperlink ref="F13" r:id="rId23" tooltip="Component" display="'Vishay Semiconductors" xr:uid="{C0540D58-2A66-46BC-A412-957029F5223E}"/>
+    <hyperlink ref="G13" r:id="rId24" tooltip="Manufacturer" display="'VS-3EMH06-M3/5AT" xr:uid="{5E950ED0-2449-4A94-BFDE-AED0C66D0867}"/>
+    <hyperlink ref="F14" r:id="rId25" tooltip="Component" display="'Vishay Semiconductors" xr:uid="{2CF9506F-8CEA-4F0B-B967-65D942E71E13}"/>
+    <hyperlink ref="G14" r:id="rId26" tooltip="Manufacturer" display="'1N4150W-E3-08" xr:uid="{F06E4061-0240-4C84-9052-9DDD1106CC7A}"/>
+    <hyperlink ref="F15" r:id="rId27" tooltip="Component" display="'Keystone Electronics" xr:uid="{66BA2C94-3D06-406E-A11D-2E2B2529AE26}"/>
+    <hyperlink ref="G15" r:id="rId28" tooltip="Manufacturer" display="'575-8" xr:uid="{F5E94429-F7A2-4633-BD92-0ADC49BB1D06}"/>
+    <hyperlink ref="F16" r:id="rId29" tooltip="Component" display="'Infineon" xr:uid="{281FCF5A-3C92-4E92-B86F-EF51E14ECBFD}"/>
+    <hyperlink ref="G16" r:id="rId30" tooltip="Manufacturer" display="'BSC059N04LS6ATMA1" xr:uid="{E45CAFE1-AF73-4B6D-B364-48AB7C0B3E56}"/>
+    <hyperlink ref="F17" r:id="rId31" tooltip="Component" display="'Panasonic" xr:uid="{76ADD341-B0BF-451E-BB6F-358A3A066D2C}"/>
+    <hyperlink ref="G17" r:id="rId32" tooltip="Manufacturer" display="'ERJ-14YJ512U" xr:uid="{5038E64C-98C1-4AB2-BFCD-661E8932F24D}"/>
+    <hyperlink ref="F18" r:id="rId33" tooltip="Component" display="'Yageo" xr:uid="{D47F87FD-3403-45D1-A9E4-A9935A203A8E}"/>
+    <hyperlink ref="G18" r:id="rId34" tooltip="Manufacturer" display="'RC0603FR-070RL" xr:uid="{B09A23EA-3E92-4040-9AC3-F60E057C6E1D}"/>
+    <hyperlink ref="F19" r:id="rId35" tooltip="Component" display="'Yageo" xr:uid="{5207CAB9-3685-4607-8435-EB96BDB484DA}"/>
+    <hyperlink ref="G19" r:id="rId36" tooltip="Manufacturer" display="'RC0603FR-0718K7L" xr:uid="{22D63B2F-FB83-4FBA-BD0B-06151899B7C2}"/>
+    <hyperlink ref="F20" r:id="rId37" tooltip="Component" display="'Yageo" xr:uid="{FC74F2B3-0F61-481C-8CC7-AC6D47666FD0}"/>
+    <hyperlink ref="G20" r:id="rId38" tooltip="Manufacturer" display="'RC0603FR-071M69L" xr:uid="{418230AA-7D61-42FF-BB05-87773265DC31}"/>
+    <hyperlink ref="F21" r:id="rId39" tooltip="Component" display="'Yageo Phycomp" xr:uid="{555C6261-4CBD-4D4E-B9F6-C7ADCB9C9946}"/>
+    <hyperlink ref="G21" r:id="rId40" tooltip="Manufacturer" display="'RC0603FR-0710KL" xr:uid="{EE79338E-E4E3-4AC1-9A61-547CADD94767}"/>
+    <hyperlink ref="F22" r:id="rId41" tooltip="Component" display="'Yageo" xr:uid="{5BB1B2CE-3492-45AB-A23E-68AC046F8AB3}"/>
+    <hyperlink ref="G22" r:id="rId42" tooltip="Manufacturer" display="'RC0603FR-0720RL" xr:uid="{8786CF9C-60BF-4E09-A4A4-B15624D4AE98}"/>
+    <hyperlink ref="F23" r:id="rId43" tooltip="Component" display="'Yageo" xr:uid="{7460C11A-034E-472E-B7BA-A024F37ABEC3}"/>
+    <hyperlink ref="G23" r:id="rId44" tooltip="Manufacturer" display="'RC0603FR-078K66L" xr:uid="{E03593B3-B7FB-4702-BACC-A3F40209DD2F}"/>
+    <hyperlink ref="F24" r:id="rId45" tooltip="Component" display="'Yageo" xr:uid="{3CCCED7A-17D1-46F0-9796-4C9F9532D41D}"/>
+    <hyperlink ref="G24" r:id="rId46" tooltip="Manufacturer" display="'RC0603FR-07180KL" xr:uid="{4E729210-D3C6-4D4C-9D49-5BAFA2B7EF08}"/>
+    <hyperlink ref="F25" r:id="rId47" tooltip="Component" display="'Yageo" xr:uid="{FB2BE67C-7561-4E75-92D6-3D6C25B52515}"/>
+    <hyperlink ref="G25" r:id="rId48" tooltip="Manufacturer" display="'RC0603FR-0733KL" xr:uid="{C357058A-4515-4EDF-A785-5860294F0B47}"/>
+    <hyperlink ref="F26" r:id="rId49" tooltip="Component" display="'Susumu" xr:uid="{BF30D61F-F71E-4AE4-8E4B-671A94A68C1C}"/>
+    <hyperlink ref="G26" r:id="rId50" tooltip="Manufacturer" display="'KRL1632E-M-R033-F-T5" xr:uid="{D9200AFE-BAA6-43F7-B23C-C2BB2F99C8AE}"/>
+    <hyperlink ref="F27" r:id="rId51" tooltip="Component" display="'Yageo" xr:uid="{0114030F-51CC-4363-A93A-FF9B6F950825}"/>
+    <hyperlink ref="G27" r:id="rId52" tooltip="Manufacturer" display="'RC0603FR-0720RL" xr:uid="{704CD0CE-EE59-4BCF-822D-5FCE5866546C}"/>
+    <hyperlink ref="F28" r:id="rId53" tooltip="Component" display="'Yageo" xr:uid="{03AF368D-1AD7-46BB-BDD0-1B63FCC4BF16}"/>
+    <hyperlink ref="G28" r:id="rId54" tooltip="Manufacturer" display="'RC0603FR-0724KL" xr:uid="{0D69076C-3E96-4141-BC3C-178B2D6852E4}"/>
+    <hyperlink ref="F29" r:id="rId55" tooltip="Component" display="'Coilcraft" xr:uid="{34867DD6-8BAA-4A84-BC1A-3D39BA4515BF}"/>
+    <hyperlink ref="G29" r:id="rId56" tooltip="Manufacturer" display="'DA2032-ALD" xr:uid="{A3F617C9-24F2-455E-BE60-C6C49BA651ED}"/>
+    <hyperlink ref="F30" r:id="rId57" tooltip="Component" display="'Texas Instruments" xr:uid="{0B645342-5941-4070-B06E-F423ACFDC379}"/>
+    <hyperlink ref="G30" r:id="rId58" tooltip="Manufacturer" display="'LM5155DSSR" xr:uid="{04459F39-94AE-49AF-812B-33F686CCE31D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId61"/>
+  <pageSetup orientation="portrait" r:id="rId59"/>
 </worksheet>
 </file>